--- a/medicine/Psychotrope/Colli_Altotiberini/Colli_Altotiberini.xlsx
+++ b/medicine/Psychotrope/Colli_Altotiberini/Colli_Altotiberini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Colli Altotiberini est un vignoble italien de la région Ombrie doté d'une appellation DOC depuis le 22 janvier 1980. Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret.
 </t>
@@ -511,7 +523,9 @@
           <t>Aire de l'appellation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les  vignobles autorisés se situent en province de Pérouse dans les communes de San Giustino, Citerna, Città di Castello, Monte Santa Maria Tiberina, Montone, Umbertide, Gubbio et Pérouse dans la Haute vallée du Tibre.
 </t>
@@ -542,7 +556,9 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les cépages les plus importants sont :
 Trebbiano toscano
@@ -580,7 +596,9 @@
           <t>Vins, appellations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sous l’appellation, les vins suivants sont autorisés :
 Colli Altotiberini bianco
